--- a/DATA_goal/Junction_Flooding_314.xlsx
+++ b/DATA_goal/Junction_Flooding_314.xlsx
@@ -453,7 +453,7 @@
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
@@ -464,13 +464,13 @@
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
@@ -655,103 +655,103 @@
         <v>44995.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.43</v>
+        <v>14.32</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.95</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.55</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3.09</v>
+        <v>30.93</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.34</v>
+        <v>23.41</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.11</v>
+        <v>11.08</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>3.34</v>
+        <v>33.37</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.75</v>
+        <v>17.45</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.7</v>
+        <v>7.02</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.05</v>
+        <v>10.47</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.21</v>
+        <v>12.13</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.29</v>
+        <v>12.89</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.62</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.13</v>
+        <v>11.28</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.55</v>
+        <v>15.51</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1</v>
+        <v>9.99</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.08</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.17</v>
+        <v>1.71</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>16.43</v>
+        <v>164.3</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.12</v>
+        <v>31.24</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.04</v>
+        <v>10.41</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.01</v>
+        <v>20.07</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.03</v>
+        <v>10.3</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.95</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.77</v>
+        <v>17.7</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.92</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.84</v>
+        <v>8.4</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.24</v>
+        <v>12.38</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.08</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.02</v>
+        <v>30.18</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.64</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.3</v>
+        <v>13.02</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44995.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.96</v>
+        <v>19.61</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.42</v>
+        <v>14.18</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.87</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4.29</v>
+        <v>42.85</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.42</v>
+        <v>34.23</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.53</v>
+        <v>15.31</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>5.78</v>
+        <v>57.76</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.39</v>
+        <v>23.85</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.04</v>
+        <v>10.36</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.52</v>
+        <v>15.25</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.71</v>
+        <v>17.09</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.82</v>
+        <v>18.16</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.5</v>
+        <v>4.95</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.54</v>
+        <v>15.41</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.18</v>
+        <v>21.75</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.33</v>
+        <v>13.26</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.48</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.12</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>22.73</v>
+        <v>227.31</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>4.31</v>
+        <v>43.09</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.42</v>
+        <v>14.23</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.86</v>
+        <v>28.6</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.49</v>
+        <v>14.94</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.27</v>
+        <v>2.66</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.87</v>
+        <v>28.66</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.26</v>
+        <v>12.57</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.13</v>
+        <v>11.27</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.33</v>
+        <v>13.29</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.77</v>
+        <v>17.72</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>5.29</v>
+        <v>52.89</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.79</v>
+        <v>7.91</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.78</v>
+        <v>17.79</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44995.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.57</v>
+        <v>5.69</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.39</v>
+        <v>3.95</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.26</v>
+        <v>12.58</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.96</v>
+        <v>9.56</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.44</v>
+        <v>4.39</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.25</v>
+        <v>22.52</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.7</v>
+        <v>6.98</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.3</v>
+        <v>2.95</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.41</v>
+        <v>4.14</v>
       </c>
       <c r="L4" s="4" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="S4" s="4" t="n">
         <v>0.5</v>
       </c>
-      <c r="M4" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.05</v>
-      </c>
       <c r="T4" s="4" t="n">
-        <v>6.14</v>
+        <v>61.39</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.29</v>
+        <v>12.87</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.42</v>
+        <v>4.16</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.84</v>
+        <v>8.35</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.43</v>
+        <v>4.28</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.1</v>
+        <v>1.01</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.05</v>
+        <v>10.45</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.37</v>
+        <v>3.68</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.34</v>
+        <v>3.41</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.4</v>
+        <v>4.01</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.51</v>
+        <v>5.08</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.11</v>
+        <v>21.05</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.22</v>
+        <v>2.22</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.52</v>
+        <v>5.21</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44995.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.91</v>
+        <v>9.06</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.66</v>
+        <v>6.59</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.85</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.99</v>
+        <v>19.9</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.58</v>
+        <v>15.8</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.71</v>
+        <v>7.06</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.74</v>
+        <v>27.36</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.11</v>
+        <v>11.05</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.48</v>
+        <v>4.79</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.7</v>
+        <v>6.99</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.79</v>
+        <v>7.95</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.85</v>
+        <v>8.48</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.23</v>
+        <v>2.29</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.71</v>
+        <v>7.14</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1</v>
+        <v>10.05</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.62</v>
+        <v>6.21</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>10.14</v>
+        <v>101.38</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.99</v>
+        <v>19.92</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.66</v>
+        <v>6.59</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.32</v>
+        <v>13.18</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.92</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.25</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.32</v>
+        <v>13.18</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.58</v>
+        <v>5.82</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.53</v>
+        <v>5.25</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.62</v>
+        <v>6.18</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.82</v>
+        <v>8.24</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.54</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.48</v>
+        <v>24.81</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.36</v>
+        <v>3.63</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.82</v>
+        <v>8.24</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_314.xlsx
+++ b/DATA_goal/Junction_Flooding_314.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,58 +655,58 @@
         <v>44995.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>14.32</v>
+        <v>14.315</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>9.449999999999999</v>
+        <v>9.452</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.55</v>
+        <v>3.548</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>30.93</v>
+        <v>30.929</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>23.41</v>
+        <v>23.407</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>11.08</v>
+        <v>11.081</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>33.37</v>
+        <v>33.367</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>17.45</v>
+        <v>17.452</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>7.02</v>
+        <v>7.022</v>
       </c>
       <c r="K2" s="4" t="n">
         <v>10.47</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>12.13</v>
+        <v>12.134</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>12.89</v>
+        <v>12.887</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.62</v>
+        <v>3.618</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>11.28</v>
+        <v>11.279</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>15.51</v>
+        <v>15.513</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>9.99</v>
+        <v>9.993</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.08</v>
+        <v>3.077</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.71</v>
+        <v>1.709</v>
       </c>
       <c r="T2" s="4" t="n">
         <v>164.3</v>
@@ -715,43 +715,43 @@
         <v>31.24</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>10.41</v>
+        <v>10.411</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>20.07</v>
+        <v>20.071</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>10.3</v>
+        <v>10.298</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.95</v>
+        <v>2.945</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>17.7</v>
+        <v>17.697</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>9.199999999999999</v>
+        <v>9.196</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>8.4</v>
+        <v>8.398</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>10</v>
+        <v>9.994999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>12.38</v>
+        <v>12.384</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.08</v>
+        <v>3.078</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>30.18</v>
+        <v>30.175</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>5.64</v>
+        <v>5.636</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>13.02</v>
+        <v>13.015</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44995.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>19.61</v>
+        <v>19.612</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>14.18</v>
+        <v>14.184</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.87</v>
+        <v>1.868</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>42.85</v>
+        <v>42.854</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>34.23</v>
+        <v>34.227</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>15.31</v>
+        <v>15.314</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>57.76</v>
+        <v>57.758</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>23.85</v>
+        <v>23.851</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>10.36</v>
+        <v>10.362</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>15.25</v>
+        <v>15.245</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>17.09</v>
+        <v>17.091</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>18.16</v>
+        <v>18.157</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.95</v>
+        <v>4.951</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>15.41</v>
+        <v>15.414</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>21.75</v>
+        <v>21.751</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>13.26</v>
+        <v>13.264</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.48</v>
+        <v>1.485</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.12</v>
+        <v>1.119</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>227.31</v>
+        <v>227.306</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>43.09</v>
+        <v>43.089</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>14.23</v>
+        <v>14.228</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>28.6</v>
+        <v>28.599</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>14.94</v>
+        <v>14.944</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.66</v>
+        <v>2.659</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>28.66</v>
+        <v>28.662</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>12.57</v>
+        <v>12.568</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>11.27</v>
+        <v>11.273</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>13.29</v>
+        <v>13.286</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>17.72</v>
+        <v>17.721</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.2</v>
+        <v>1.199</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>52.89</v>
+        <v>52.885</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>7.91</v>
+        <v>7.907</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>17.79</v>
+        <v>17.788</v>
       </c>
     </row>
     <row r="4">
@@ -866,100 +866,100 @@
         <v>5.69</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3.95</v>
+        <v>3.949</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.945</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>12.58</v>
+        <v>12.582</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>9.56</v>
+        <v>9.555</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>4.39</v>
+        <v>4.392</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>22.52</v>
+        <v>22.517</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>6.98</v>
+        <v>6.981</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.95</v>
+        <v>2.953</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>4.14</v>
+        <v>4.136</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>4.99</v>
+        <v>4.991</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>5.36</v>
+        <v>5.357</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.46</v>
+        <v>1.457</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>4.51</v>
+        <v>4.512</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>6.32</v>
+        <v>6.321</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>4.1</v>
+        <v>4.104</v>
       </c>
       <c r="R4" s="4" t="n">
         <v>0.91</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.5</v>
+        <v>0.497</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>61.39</v>
+        <v>61.388</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>12.87</v>
+        <v>12.873</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>4.16</v>
+        <v>4.164</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>8.35</v>
+        <v>8.351000000000001</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>4.28</v>
+        <v>4.281</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.01</v>
+        <v>1.012</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>10.45</v>
+        <v>10.454</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>3.68</v>
+        <v>3.678</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.41</v>
+        <v>3.413</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>4.01</v>
+        <v>4.011</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>5.08</v>
+        <v>5.083</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.75</v>
+        <v>0.747</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>21.05</v>
+        <v>21.052</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.22</v>
+        <v>2.217</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>5.21</v>
+        <v>5.208</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>8.24</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44995.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>22.52</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>16.75</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>49.16</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>40.11</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>17.67</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>65.83</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>27.34</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>17.99</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>20.91</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>17.67</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>25.15</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>14.87</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>261.64</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>49.36</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>16.31</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>17.43</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>32.58</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>14.41</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>12.75</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>20.62</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>59.83</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>20.39</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_314.xlsx
+++ b/DATA_goal/Junction_Flooding_314.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -970,49 +970,49 @@
         <v>9.06</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>6.59</v>
+        <v>6.585</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.85</v>
+        <v>0.851</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>19.9</v>
+        <v>19.898</v>
       </c>
       <c r="F5" s="4" t="n">
         <v>15.8</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>7.06</v>
+        <v>7.064</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>27.36</v>
+        <v>27.358</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>11.05</v>
+        <v>11.053</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.79</v>
+        <v>4.788</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>6.99</v>
+        <v>6.988</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>7.95</v>
+        <v>7.946</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>8.48</v>
+        <v>8.481</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.29</v>
+        <v>2.293</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>7.14</v>
+        <v>7.143</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>10.05</v>
+        <v>10.048</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>6.21</v>
+        <v>6.206</v>
       </c>
       <c r="R5" s="4" t="n">
         <v>0.72</v>
@@ -1021,49 +1021,153 @@
         <v>0.5</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>101.38</v>
+        <v>101.382</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>19.92</v>
+        <v>19.923</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>6.59</v>
+        <v>6.594</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>13.18</v>
+        <v>13.177</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>6.92</v>
+        <v>6.918</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.25</v>
+        <v>1.253</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>13.18</v>
+        <v>13.179</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>5.82</v>
+        <v>5.824</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>5.25</v>
+        <v>5.253</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>6.18</v>
+        <v>6.175</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>8.24</v>
+        <v>8.238</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.542</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>24.81</v>
+        <v>24.809</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.63</v>
+        <v>3.633</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>8.24</v>
+        <v>8.243</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44995.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>22.52</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>16.75</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>49.16</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>40.11</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>17.67</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>65.83</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>27.34</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>17.99</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>20.91</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>17.67</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>25.15</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>14.87</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>261.64</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>49.36</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>16.31</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>17.43</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>32.58</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>14.41</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>20.62</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>59.83</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>20.39</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_314.xlsx
+++ b/DATA_goal/Junction_Flooding_314.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -970,49 +970,49 @@
         <v>9.06</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>6.585</v>
+        <v>6.59</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.851</v>
+        <v>0.85</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>19.898</v>
+        <v>19.9</v>
       </c>
       <c r="F5" s="4" t="n">
         <v>15.8</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>7.064</v>
+        <v>7.06</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>27.358</v>
+        <v>27.36</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>11.053</v>
+        <v>11.05</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.788</v>
+        <v>4.79</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>6.988</v>
+        <v>6.99</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>7.946</v>
+        <v>7.95</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>8.481</v>
+        <v>8.48</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.293</v>
+        <v>2.29</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>7.143</v>
+        <v>7.14</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>10.048</v>
+        <v>10.05</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>6.206</v>
+        <v>6.21</v>
       </c>
       <c r="R5" s="4" t="n">
         <v>0.72</v>
@@ -1021,153 +1021,49 @@
         <v>0.5</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>101.382</v>
+        <v>101.38</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>19.923</v>
+        <v>19.92</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>6.594</v>
+        <v>6.59</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>13.177</v>
+        <v>13.18</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>6.918</v>
+        <v>6.92</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.253</v>
+        <v>1.25</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>13.179</v>
+        <v>13.18</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>5.824</v>
+        <v>5.82</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>5.253</v>
+        <v>5.25</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>6.175</v>
+        <v>6.18</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>8.238</v>
+        <v>8.24</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.542</v>
+        <v>0.54</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>24.809</v>
+        <v>24.81</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.633</v>
+        <v>3.63</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>8.243</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44995.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>22.52</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>16.75</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>49.16</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>40.11</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>17.67</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>65.83</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>27.34</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>17.99</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>20.91</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>17.67</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>25.15</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>14.87</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>261.64</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>49.36</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>16.31</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>17.43</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>32.58</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>14.41</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>12.75</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>20.62</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>59.83</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>20.39</v>
+        <v>8.24</v>
       </c>
     </row>
   </sheetData>
